--- a/biology/Médecine/Leucémie_aiguë_mégacaryocytaire/Leucémie_aiguë_mégacaryocytaire.xlsx
+++ b/biology/Médecine/Leucémie_aiguë_mégacaryocytaire/Leucémie_aiguë_mégacaryocytaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB_m%C3%A9gacaryocytaire</t>
+          <t>Leucémie_aiguë_mégacaryocytaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La leucémie aiguë mégacaryocytaire (LAMK) est un sous-type de leucémie aiguë myéloïde caractérisée par la prolifération de cellules immatures de la lignée plaquettaire, les mégacaryoblastes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB_m%C3%A9gacaryocytaire</t>
+          <t>Leucémie_aiguë_mégacaryocytaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La LAMK représente moins de 5% des cas de LAM. Elle survient chez l'enfant et l'adule mais notamment chez les enfants atteints de trisomie 21[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La LAMK représente moins de 5% des cas de LAM. Elle survient chez l'enfant et l'adule mais notamment chez les enfants atteints de trisomie 21.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB_m%C3%A9gacaryocytaire</t>
+          <t>Leucémie_aiguë_mégacaryocytaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clinique
-Les symptômes spécifiques sont : pâleur, fièvre, hémorragie cutanée ou muqueuse, hépato-splénomégalie et plus rarement des manifestations neurologiques ou une lymphadénopathie[1].
-Biologique
-Une pancytopénie est observée à l'hémogramme.
-Le diagnostic est posé s'il est observé dans la moelle osseuse plus de 20 % de blastes dont la moitié appartient à la lignée plaquettaire[2].
-Classification
-La LAMK correspond à la LAM 7 de l'ancienne classification Franco-Américano-Britannique
-Dans la classification OMS de 2016 elle peut être classée dans "LAM avec anomalies cytogénétiques récurrentes" (si t(1;22) par exemple) ou bien dans les LAM sans indications.
-Prise en charge thérapeutique</t>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes spécifiques sont : pâleur, fièvre, hémorragie cutanée ou muqueuse, hépato-splénomégalie et plus rarement des manifestations neurologiques ou une lymphadénopathie.
+</t>
         </is>
       </c>
     </row>
@@ -562,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aigu%C3%AB_m%C3%A9gacaryocytaire</t>
+          <t>Leucémie_aiguë_mégacaryocytaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +590,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Biologique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une pancytopénie est observée à l'hémogramme.
+Le diagnostic est posé s'il est observé dans la moelle osseuse plus de 20 % de blastes dont la moitié appartient à la lignée plaquettaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leucémie_aiguë_mégacaryocytaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aigu%C3%AB_m%C3%A9gacaryocytaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La LAMK correspond à la LAM 7 de l'ancienne classification Franco-Américano-Britannique
+Dans la classification OMS de 2016 elle peut être classée dans "LAM avec anomalies cytogénétiques récurrentes" (si t(1;22) par exemple) ou bien dans les LAM sans indications.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leucémie_aiguë_mégacaryocytaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aigu%C3%AB_m%C3%A9gacaryocytaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
